--- a/test_write.xlsx
+++ b/test_write.xlsx
@@ -22,34 +22,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t xml:space="preserve">ABCD1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCD1112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCD1113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCD1114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCD1115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCD1116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCD1117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCD1118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCD1119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCD1120</t>
+    <t xml:space="preserve">ABCD11112222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCD11112223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCD11112224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCD11112225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCD11112226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCD11112227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCD11112228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCD11112229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCD11112230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCD11112231</t>
   </si>
 </sst>
 </file>
@@ -125,8 +125,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -322,58 +330,61 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.12"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/test_write.xlsx
+++ b/test_write.xlsx
@@ -22,6 +22,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t xml:space="preserve">ABCD11112220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCD111122211</t>
+  </si>
+  <si>
     <t xml:space="preserve">ABCD11112222</t>
   </si>
   <si>
@@ -44,12 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">ABCD11112229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCD11112230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCD11112231</t>
   </si>
 </sst>
 </file>
@@ -330,7 +330,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
